--- a/issues-examples.xlsx
+++ b/issues-examples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atanasov\workspace\excel2Jira\src\test\java\de\adesso\excel2jira\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atanasov\workspace\excel2Jira\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Projekt</t>
   </si>
@@ -998,7 +998,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -1050,8 +1050,8 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
-        <v>4711</v>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
